--- a/documentation/Agile Storyboard.xlsx
+++ b/documentation/Agile Storyboard.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Story</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Time taken (minutes)</t>
+  </si>
+  <si>
     <t>Une témoin doit pouvoir se communiquer avec les pompiers pour reporter un accident</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>En progrès</t>
+  </si>
+  <si>
+    <t>Statecharts cas attentat</t>
   </si>
   <si>
     <t>TO DO</t>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -238,16 +244,22 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -274,6 +286,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -313,7 +328,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="22.0"/>
     <col customWidth="1" min="2" max="2" width="39.29"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
+    <col customWidth="1" min="3" max="3" width="15.86"/>
     <col customWidth="1" min="4" max="4" width="17.57"/>
   </cols>
   <sheetData>
@@ -333,178 +348,190 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
         <v>20.0</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3">
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="F3" s="5">
         <v>45.0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>15.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15.0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5">
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>90.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>90.0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
         <v>20.0</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>20.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>30.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>60.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>15.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11">
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -585,63 +612,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="16" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -655,36 +682,36 @@
       <c r="C8" s="2"/>
     </row>
     <row r="15">
-      <c r="E15" s="16" t="s">
-        <v>27</v>
+      <c r="E15" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
+      <c r="E16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="18" t="s">
-        <v>30</v>
+      <c r="E17" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="19" t="s">
-        <v>31</v>
+      <c r="E18" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="20" t="s">
-        <v>32</v>
+      <c r="E19" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
-      <c r="E20" s="21" t="s">
-        <v>33</v>
+      <c r="E20" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Agile Storyboard.xlsx
+++ b/documentation/Agile Storyboard.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Story</t>
   </si>
@@ -65,12 +65,12 @@
     <t>Preparer les use cases</t>
   </si>
   <si>
-    <t>En progrès</t>
-  </si>
-  <si>
     <t>Statecharts cas attentat</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
     <t>TO DO</t>
   </si>
   <si>
@@ -80,26 +80,26 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>Use case diagram version attentat</t>
+    <t>Nouvelle version diagramme de sequence attentats</t>
   </si>
   <si>
     <t>Manutention du storyboard &amp; github
 </t>
   </si>
   <si>
+    <t>Diagramme de sequence cas victime blessé (manuel)</t>
+  </si>
+  <si>
+    <t>Nouvelle version statecharts attentat</t>
+  </si>
+  <si>
+    <t>Diagramme de sequence sur logiciel</t>
+  </si>
+  <si>
+    <t>Use case diagram version attentat</t>
+  </si>
+  <si>
     <t>Nouvelle version diagramme de classes attentat</t>
-  </si>
-  <si>
-    <t>Diagramme de sequence cas victime blessé (manuel)</t>
-  </si>
-  <si>
-    <t>Nouvelle version statecharts attentat</t>
-  </si>
-  <si>
-    <t>Nouvelle version diagramme de sequence attentats</t>
-  </si>
-  <si>
-    <t>Diagramme de sequence sur logiciel</t>
   </si>
   <si>
     <t>Antoine</t>
@@ -472,9 +472,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40.0</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -489,15 +491,19 @@
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20.0</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <v>60.0</v>
@@ -505,7 +511,9 @@
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -634,31 +642,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="16" t="s">
         <v>12</v>
@@ -668,18 +667,22 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15">
       <c r="E15" s="18" t="s">

--- a/documentation/Agile Storyboard.xlsx
+++ b/documentation/Agile Storyboard.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Story</t>
   </si>
@@ -68,7 +68,13 @@
     <t>Statecharts cas attentat</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>Diagramme d'instance</t>
+  </si>
+  <si>
+    <t>Nouvelle app citoyen</t>
+  </si>
+  <si>
+    <t>Documentation in HTML</t>
   </si>
   <si>
     <t>TO DO</t>
@@ -80,41 +86,62 @@
     <t>DONE</t>
   </si>
   <si>
+    <t>Diagramme de sequence sur logiciel</t>
+  </si>
+  <si>
+    <t>Use case diagram version attentat</t>
+  </si>
+  <si>
+    <t>Nouvelle version diagramme de classes attentat</t>
+  </si>
+  <si>
+    <t>Nouvelle version statecharts attentat</t>
+  </si>
+  <si>
+    <t>Diagramme d'instances attentat</t>
+  </si>
+  <si>
+    <t>Diagramme de sequence cas victime blessé (manuel)</t>
+  </si>
+  <si>
     <t>Nouvelle version diagramme de sequence attentats</t>
   </si>
   <si>
-    <t>Manutention du storyboard &amp; github
+    <t>Idealisation du projet et use cases cas appli citoyen</t>
+  </si>
+  <si>
+    <t>Diagramme de classes  cas appli citoyen</t>
+  </si>
+  <si>
+    <t>Generation de docs</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Statecharts cas attentat  cas appli citoyen</t>
+  </si>
+  <si>
+    <t>Etiene</t>
+  </si>
+  <si>
+    <t>(scrum master)</t>
+  </si>
+  <si>
+    <t>Diagramme d'instance  cas appli citoyen</t>
+  </si>
+  <si>
+    <t>Pierrick</t>
+  </si>
+  <si>
+    <t>Diagramme de sequence  cas appli citoyen</t>
+  </si>
+  <si>
+    <t>Yiqian</t>
+  </si>
+  <si>
+    <t>Manutention du storyboard, défis &amp; github
 </t>
-  </si>
-  <si>
-    <t>Diagramme de sequence cas victime blessé (manuel)</t>
-  </si>
-  <si>
-    <t>Nouvelle version statecharts attentat</t>
-  </si>
-  <si>
-    <t>Diagramme de sequence sur logiciel</t>
-  </si>
-  <si>
-    <t>Use case diagram version attentat</t>
-  </si>
-  <si>
-    <t>Nouvelle version diagramme de classes attentat</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
-  <si>
-    <t>Etiene</t>
-  </si>
-  <si>
-    <t>(scrum master)</t>
-  </si>
-  <si>
-    <t>Pierrick</t>
-  </si>
-  <si>
-    <t>Yiqian</t>
   </si>
   <si>
     <t>(groupe)</t>
@@ -148,7 +175,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,38 +202,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980000"/>
+        <bgColor rgb="FF980000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF980000"/>
-        <bgColor rgb="FF980000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
-        <bgColor rgb="FFF1C232"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -227,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -261,46 +306,58 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -330,6 +387,7 @@
     <col customWidth="1" min="2" max="2" width="39.29"/>
     <col customWidth="1" min="3" max="3" width="15.86"/>
     <col customWidth="1" min="4" max="4" width="17.57"/>
+    <col customWidth="1" min="5" max="5" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,95 +570,207 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>80.0</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20.0</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>80.0</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="3"/>
+    <row r="12" ht="18.0" customHeight="1">
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>60.0</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>30.0</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30.0</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5.0</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
+    <row r="17">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -620,101 +790,133 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="16" t="s">
-        <v>27</v>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="11">
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="15">
-      <c r="E15" s="18" t="s">
-        <v>29</v>
+      <c r="C15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>31</v>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="21" t="s">
-        <v>32</v>
+      <c r="C17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="22" t="s">
-        <v>33</v>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="23" t="s">
-        <v>34</v>
+      <c r="C19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20">
-      <c r="E20" s="24" t="s">
-        <v>35</v>
+      <c r="E20" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
